--- a/biology/Botanique/Aplectrum_hyemale/Aplectrum_hyemale.xlsx
+++ b/biology/Botanique/Aplectrum_hyemale/Aplectrum_hyemale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aplectrum hyemale, ou Aplectrelle d'hiver, est une espèce de plantes à fleurs de la famille des Orchidaceae. Cette espèce nord-américaine est protégée au Québec et dans certains états des États-Unis.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée vivace mesure jusqu'à 50 cm de hauteur. Sa partie souterraine comprend un corme d'environ 2 cm de diamètre, à partir duquel se développe en automne une feuille unique. Cette dernière est de forme elliptique à ovale et a un aspect fripé ; elle mesure une dizaine de centimètres de long pour 4 à 8 cm de large[1]. De longues nervures blanches (parfois teintées de vert et/ou de pourpre) parallèles parcourent la feuille, lui donnant un aspect vert pâle. Cette feuille persiste durant l'hiver, même sous la neige, puis meurt à la fin du printemps.
-Appareil reproducteur
-La floraison débute à la fin du printemps.
-L'inflorescence est une grappe composée de 6 à 10 fleurs portée à l'extrémité d'une hampe florale glabre. Chaque fleur est composée de trois sépales et de deux pétales latéraux vert-jaunâtre, souvent teintés de pourpre ou de brun-violacé. Le 3e pétale, central (labelle), est divisé en trois lobes blancs, tachetés de rose violacé, et ne présente pas d’éperon.
-Le fruit est une capsule ovale d'environ 2,5 cm de longueur pour environ 1,5 cm de largeur[1]. La maturité est atteinte entre fin juin et octobre.
-Il est rare que la reproduction sexuée soit un succès, car la germination des graines demande une symbiose avec un champignon microscopique particulier[1]. La reproduction est plus généralement végétative, due à la production d'un deuxième corme qui donnera un individu identique à l'individu parental.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée vivace mesure jusqu'à 50 cm de hauteur. Sa partie souterraine comprend un corme d'environ 2 cm de diamètre, à partir duquel se développe en automne une feuille unique. Cette dernière est de forme elliptique à ovale et a un aspect fripé ; elle mesure une dizaine de centimètres de long pour 4 à 8 cm de large. De longues nervures blanches (parfois teintées de vert et/ou de pourpre) parallèles parcourent la feuille, lui donnant un aspect vert pâle. Cette feuille persiste durant l'hiver, même sous la neige, puis meurt à la fin du printemps.
 </t>
         </is>
       </c>
@@ -545,12 +557,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est originaire de l'est de l'Amérique du Nord. Son aire de répartition couvre une partie du sud-est du Canada (sud de l’Ontario, Montérégie au Québec) et de l'est des États-Unis (au sud, de l’Oklahoma à la Géorgie, au nord du Minnesota au Maine), avec une étrange présence isolée en Arizona[1],[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison débute à la fin du printemps.
+L'inflorescence est une grappe composée de 6 à 10 fleurs portée à l'extrémité d'une hampe florale glabre. Chaque fleur est composée de trois sépales et de deux pétales latéraux vert-jaunâtre, souvent teintés de pourpre ou de brun-violacé. Le 3e pétale, central (labelle), est divisé en trois lobes blancs, tachetés de rose violacé, et ne présente pas d’éperon.
+Le fruit est une capsule ovale d'environ 2,5 cm de longueur pour environ 1,5 cm de largeur. La maturité est atteinte entre fin juin et octobre.
+Il est rare que la reproduction sexuée soit un succès, car la germination des graines demande une symbiose avec un champignon microscopique particulier. La reproduction est plus généralement végétative, due à la production d'un deuxième corme qui donnera un individu identique à l'individu parental.
 </t>
         </is>
       </c>
@@ -576,13 +597,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de l'est de l'Amérique du Nord. Son aire de répartition couvre une partie du sud-est du Canada (sud de l’Ontario, Montérégie au Québec) et de l'est des États-Unis (au sud, de l’Oklahoma à la Géorgie, au nord du Minnesota au Maine), avec une étrange présence isolée en Arizona,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aplectrum_hyemale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aplectrum_hyemale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Statut et protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toutes les orchidées, Aplectrum hyemale est inscrite en annexe II de la CITES depuis 1975, mais le Canada a émis des réservations sur ce statut de 1975 à 1977[3].
-L'aplectrelle d'hiver est très menacée au Québec, où on ne la trouve plus que dans deux endroits très localisés de Montérégie[1]. Aux États-Unis, elle est particulièrement menacée et protégée dans le Connecticut, le Massachusetts, le New Jersey, l'état de New York, la Pennsylvanie et le Vermont[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les orchidées, Aplectrum hyemale est inscrite en annexe II de la CITES depuis 1975, mais le Canada a émis des réservations sur ce statut de 1975 à 1977.
+L'aplectrelle d'hiver est très menacée au Québec, où on ne la trouve plus que dans deux endroits très localisés de Montérégie. Aux États-Unis, elle est particulièrement menacée et protégée dans le Connecticut, le Massachusetts, le New Jersey, l'état de New York, la Pennsylvanie et le Vermont.
 </t>
         </is>
       </c>
